--- a/数据分析表格汇总.xlsx
+++ b/数据分析表格汇总.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan\Documents\GitHub\jiaanpei\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="24795" windowHeight="11895" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="24795" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="MySQL" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,11 +530,66 @@
     <t>报表名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>hangzhou_claim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市2016-2017理赔数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangzhou_claim_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市某品牌配件平均价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chexiangpei_hangzhou_cmp</t>
+  </si>
+  <si>
+    <t>chexiangpei_hangzhou_claim_cmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车享配数据与杭州本地化价格对比分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,6 +677,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -626,6 +689,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -674,7 +740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,9 +773,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,6 +825,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -918,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1829,6 +1929,84 @@
         <v>81</v>
       </c>
     </row>
+    <row r="38" spans="1:8" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="7">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="3">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="3">
+        <v>42945</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1840,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
